--- a/CVE_chrome_firefox_linux.xlsx
+++ b/CVE_chrome_firefox_linux.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>CVE</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Ubuntu 16.04 LTS and Fedora 25</t>
+  </si>
+  <si>
+    <t>score是根据poc内容的介绍详细程度进行打分1-5（1代表不可能重现  5代表最有可能重现 1-5代表重现可能性依次递增）；TYPE有script和core两种，script代表此缺陷是脚本缺陷，core代表此缺陷是浏览器内核缺陷</t>
   </si>
   <si>
     <t xml:space="preserve"> Dos</t>
@@ -480,12 +483,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,26 +533,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,16 +565,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +594,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -600,16 +625,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,49 +657,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -676,13 +672,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,13 +804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,37 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,119 +852,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -896,8 +990,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -933,17 +1029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -958,169 +1043,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,6 +1225,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1467,13 +1567,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="8.88888888888889" style="2"/>
     <col min="3" max="3" width="29.6592592592593" style="2" customWidth="1"/>
@@ -1505,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="13.5" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="1:8">
+    <row r="3" ht="51" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1538,22 +1638,28 @@
       <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:7">
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" ht="25.5" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>42536</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9">
         <v>3</v>
@@ -1561,22 +1667,26 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="25.5" spans="1:7">
+      <c r="J4" s="12"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" ht="26.25" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>42881</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
@@ -1584,6 +1694,10 @@
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1610,10 +1724,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" spans="1:7">
@@ -1621,16 +1735,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6">
         <v>39637</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9">
         <v>3</v>
@@ -1641,65 +1755,65 @@
     </row>
     <row r="10" ht="25.5" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6">
         <v>38770</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="9">
         <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6">
         <v>39925</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="9">
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
         <v>38201</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -1708,50 +1822,50 @@
         <v>11</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="38.25" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>38194</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="9">
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="63.75" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6">
         <v>38615</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -1760,24 +1874,24 @@
         <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="25.5" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6">
         <v>38941</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
@@ -1786,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="38.25" spans="1:8">
@@ -1794,16 +1908,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6">
         <v>38769</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
@@ -1812,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="51" spans="1:8">
@@ -1820,68 +1934,68 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6">
         <v>38820</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="9">
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6">
         <v>38747</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="9">
         <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="38.25" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6">
         <v>38755</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="9">
         <v>3</v>
@@ -1890,24 +2004,24 @@
         <v>11</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="38.25" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="6">
         <v>39162</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="9">
         <v>2</v>
@@ -1916,102 +2030,102 @@
         <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6">
         <v>38874</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9">
         <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6">
         <v>38944</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="9">
         <v>3</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="38.25" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6">
         <v>39466</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="9">
         <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6">
         <v>39149</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9">
         <v>4</v>
@@ -2020,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:8">
@@ -2028,25 +2142,25 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6">
         <v>39150</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="9">
         <v>3</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" spans="1:8">
@@ -2054,25 +2168,25 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="6">
         <v>39486</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="9">
         <v>3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="1:8">
@@ -2080,16 +2194,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="6">
         <v>39626</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9">
         <v>3</v>
@@ -2098,24 +2212,24 @@
         <v>11</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="38.25" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="6">
         <v>39944</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="9">
         <v>4</v>
@@ -2124,24 +2238,24 @@
         <v>11</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="6">
         <v>39944</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9">
         <v>3</v>
@@ -2150,24 +2264,24 @@
         <v>11</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="38.25" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="6">
         <v>39985</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="9">
         <v>3</v>
@@ -2176,24 +2290,24 @@
         <v>11</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="38.25" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="6">
         <v>40113</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="9">
         <v>3</v>
@@ -2202,24 +2316,24 @@
         <v>11</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="38.25" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="6">
         <v>39930</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="9">
         <v>3</v>
@@ -2228,24 +2342,24 @@
         <v>11</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="6">
         <v>39943</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F33" s="9">
         <v>3</v>
@@ -2254,50 +2368,50 @@
         <v>11</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6">
         <v>39988</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34" s="9">
         <v>4</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="25.5" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="6">
         <v>40113</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F35" s="9">
         <v>3</v>
@@ -2306,24 +2420,24 @@
         <v>11</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="6">
         <v>40113</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F36" s="9">
         <v>3</v>
@@ -2332,24 +2446,24 @@
         <v>11</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="6">
         <v>40255</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="9">
         <v>3</v>
@@ -2358,24 +2472,24 @@
         <v>11</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" ht="38.25" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D38" s="6">
         <v>40379</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" s="9">
         <v>3</v>
@@ -2384,50 +2498,50 @@
         <v>11</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" ht="38.25" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="6">
         <v>40470</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="9">
         <v>4</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" ht="38.25" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D40" s="6">
         <v>39294</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F40" s="9">
         <v>2</v>
@@ -2438,19 +2552,19 @@
     </row>
     <row r="41" ht="51" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D41" s="6">
         <v>40521</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F41" s="9">
         <v>2</v>
@@ -2459,24 +2573,24 @@
         <v>11</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" ht="25.5" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="6">
         <v>40261</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F42" s="9">
         <v>2</v>
@@ -2487,19 +2601,19 @@
     </row>
     <row r="43" ht="25.5" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D43" s="6">
         <v>40351</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F43" s="9">
         <v>3</v>
@@ -2508,24 +2622,24 @@
         <v>11</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" ht="38.25" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D44" s="6">
         <v>38446</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F44" s="9">
         <v>2</v>
@@ -2534,33 +2648,36 @@
         <v>11</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="25.5" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D45" s="6">
         <v>38425</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F45" s="9">
         <v>3</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J3:M5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://www.exploit-db.com/exploits/40943/"/>
     <hyperlink ref="E4" r:id="rId2" display="https://www.exploit-db.com/exploits/39961/" tooltip="https://www.exploit-db.com/exploits/39961/"/>
